--- a/data/红球预测.xlsx
+++ b/data/红球预测.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buliangliang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MacData/devproject/python/lottery_engine/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFE7430-DF14-4E63-90F2-3D9C73E86FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3E7FF9-8032-B94E-ACBB-6C0E9D28B280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,10 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -364,16 +363,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A001B2B7-0F28-4A8E-A80D-B52646B5852B}" name="表1" displayName="表1" ref="A1:H21" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A001B2B7-0F28-4A8E-A80D-B52646B5852B}" name="表1" displayName="表1" ref="A1:H21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3C09DF52-141D-4811-A8BD-0799AE864D0E}" name="列1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1AE543D8-ABB2-44C5-ADB7-D7294011D13F}" name="列2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{F9D4714A-A6C5-46A3-8C6B-750C1EC55D38}" name="列3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{61553B51-FEC0-4E64-9504-0DB753496275}" name="列4" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{D3C09720-0AB5-4FD6-9E01-CDA51C97CB4F}" name="列5" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{1C5B3F18-8613-44CF-8AFB-AC4FE48BAF55}" name="列6" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{C1BDCE32-7804-4C6C-8697-A4CB65AE5179}" name="篮球1" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{A78A472C-826B-4841-8385-1EFE117AD7CD}" name="篮球2" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{3C09DF52-141D-4811-A8BD-0799AE864D0E}" name="列1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{1AE543D8-ABB2-44C5-ADB7-D7294011D13F}" name="列2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{F9D4714A-A6C5-46A3-8C6B-750C1EC55D38}" name="列3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{61553B51-FEC0-4E64-9504-0DB753496275}" name="列4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D3C09720-0AB5-4FD6-9E01-CDA51C97CB4F}" name="列5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{1C5B3F18-8613-44CF-8AFB-AC4FE48BAF55}" name="列6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{C1BDCE32-7804-4C6C-8697-A4CB65AE5179}" name="篮球1" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{A78A472C-826B-4841-8385-1EFE117AD7CD}" name="篮球2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -642,41 +641,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>13</v>
       </c>
@@ -702,7 +701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -728,7 +727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -754,7 +753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -780,7 +779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -806,7 +805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>19</v>
       </c>
@@ -832,7 +831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -858,7 +857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -884,7 +883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>15</v>
       </c>
@@ -910,7 +909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>16</v>
       </c>
@@ -936,7 +935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -962,7 +961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -988,7 +987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1014,7 +1013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1040,7 +1039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -1066,24 +1065,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>4</v>
       </c>
       <c r="B17" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1">
         <v>24</v>
       </c>
       <c r="F17" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="1">
         <v>16</v>
@@ -1092,7 +1091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -1118,7 +1117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>11</v>
       </c>
@@ -1144,7 +1143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>12</v>
       </c>
@@ -1170,7 +1169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>4</v>
       </c>
